--- a/data/trans_dic/P19C05-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C05-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P19C05-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C05-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,32%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>1,72; 5,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>1,53; 4,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>1,96; 6,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>0,06; 5,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>0,95; 3,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>2,37; 6,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>1,53; 5,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>0,05; 4,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>1,74; 4,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>2,32; 5,05</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>2,28; 4,98</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>0,41; 3,56</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,06%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>2,03; 5,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>2,28; 5,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>2,7; 6,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>2,14; 7,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>2,41; 5,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>4,34; 8,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>2,21; 5,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>2,41; 6,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>2,53; 4,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>3,66; 6,01</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>2,67; 5,22</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>2,67; 5,92</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,21%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>4,76; 9,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>5,62; 10,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>2,8; 6,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>2,37; 5,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>6,32; 10,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>5,58; 9,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>4,95; 8,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>3,22; 6,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>6,22; 9,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>6,14; 9,46</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>4,27; 6,77</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>3,32; 5,53</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,0%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>9,76; 16,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>10,74; 17,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>7,39; 13,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>4,98; 9,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>9,74; 15,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>12,53; 18,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>7,22; 12,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>5,35; 8,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>10,64; 15,54</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>12,8; 17,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>7,95; 11,59</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>5,67; 8,35</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,13%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,2%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,32%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,54%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,22%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,41%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,1%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,13%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,52%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>21,13; 31,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>21,68; 31,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>13,46; 21,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>9,37; 14,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>19,55; 28,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>20,2; 28,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>13,72; 21,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>7,86; 11,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>21,44; 28,79</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>21,97; 28,7</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>14,76; 20,43</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>9,08; 12,22</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,78%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,01%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,31%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,01%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,52%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,93%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,21%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,21%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,98%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,25%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,32%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>37,39; 48,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>37,36; 47,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>25,02; 34,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>23,5; 29,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>45,7; 55,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>44,75; 52,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>24,91; 33,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>19,74; 32,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>44,05; 50,72</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>42,76; 49,08</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>25,82; 32,5</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>21,71; 30,06</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,07%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>12,22; 15,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>13,75; 16,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>9,57; 11,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>9,29; 11,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>14,73; 17,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>16,74; 19,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>10,39; 12,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>10,63; 12,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>13,91; 15,89</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>15,67; 17,67</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>10,38; 12,15</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>10,27; 11,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C05-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C05-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,34%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 5,44</t>
+          <t>0,08; 5,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 4,67</t>
+          <t>0,06; 4,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,56</t>
+          <t>0,38; 3,87</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>3,91%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 7,13</t>
+          <t>2,22; 7,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,41; 6,78</t>
+          <t>1,93; 6,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 5,92</t>
+          <t>2,5; 5,73</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>4,27%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 5,8</t>
+          <t>2,4; 5,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,22; 6,2</t>
+          <t>3,29; 6,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,32; 5,53</t>
+          <t>3,35; 5,6</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>6,1%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,98; 9,54</t>
+          <t>2,4; 8,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,35; 8,36</t>
+          <t>5,02; 8,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,67; 8,35</t>
+          <t>3,32; 7,74</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>10,54%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,37; 14,27</t>
+          <t>9,35; 14,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,86; 11,42</t>
+          <t>7,88; 11,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,08; 12,22</t>
+          <t>9,13; 12,27</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>42,78%</t>
+          <t>38,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>42,01%</t>
+          <t>40,17%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>29,31%</t>
+          <t>25,35%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>26,01%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>50,52%</t>
+          <t>41,74%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>48,93%</t>
+          <t>42,44%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>29,21%</t>
+          <t>27,59%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>28,21%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>47,21%</t>
+          <t>40,42%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>45,98%</t>
+          <t>41,38%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>26,57%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>27,32%</t>
+          <t>16,5%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>37,39; 48,07</t>
+          <t>32,63; 45,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>37,36; 47,26</t>
+          <t>33,77; 47,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,02; 34,59</t>
+          <t>19,37; 31,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,5; 29,04</t>
+          <t>15,72; 22,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>45,7; 55,17</t>
+          <t>36,33; 48,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>44,75; 52,77</t>
+          <t>36,23; 48,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,91; 33,51</t>
+          <t>22,32; 32,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19,74; 32,42</t>
+          <t>5,92; 23,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>44,05; 50,72</t>
+          <t>35,69; 44,57</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>42,76; 49,08</t>
+          <t>37,46; 45,82</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>25,82; 32,5</t>
+          <t>22,51; 30,86</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>21,71; 30,06</t>
+          <t>8,47; 21,34</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>49,32%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>44,61%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>35,5%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>35,82%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>60,93%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>55,39%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>31,18%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>39,82%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>56,54%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>51,3%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>32,87%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>38,21%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>40,82; 58,79</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>37,57; 52,29</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>28,78; 43,59</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>31,57; 40,35</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>53,24; 67,5</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>49,28; 61,17</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>24,45; 38,63</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>36,43; 43,29</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>51,04; 61,8</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>46,81; 56,29</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>27,68; 38,34</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>35,43; 40,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>13,59%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>15,0%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10,65%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>9,56%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>16,13%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>18,23%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>11,63%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>11,12%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>14,93%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>16,68%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>11,16%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>10,36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>12,22; 15,05</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>13,75; 16,54</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>9,57; 11,91</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>9,29; 11,49</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7,55; 10,84</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>14,73; 17,43</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>16,74; 19,53</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>10,39; 12,99</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>10,63; 12,76</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>8,98; 12,29</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>13,91; 15,89</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>15,67; 17,67</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>10,38; 12,15</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>10,27; 11,83</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>9,06; 11,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P19C05-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C05-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,3</t>
+          <t>1,63; 5,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 4,79</t>
+          <t>1,7; 4,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 6,16</t>
+          <t>2,15; 6,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,08; 5,86</t>
+          <t>0,08; 4,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,94</t>
+          <t>1,11; 4,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,37; 6,55</t>
+          <t>2,35; 6,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 5,22</t>
+          <t>1,59; 5,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 4,88</t>
+          <t>0,08; 5,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,01</t>
+          <t>1,63; 3,94</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,05</t>
+          <t>2,29; 4,93</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 4,98</t>
+          <t>2,18; 4,96</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,87</t>
+          <t>0,37; 3,76</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,03; 5,25</t>
+          <t>2,11; 5,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 5,34</t>
+          <t>2,32; 5,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,7; 6,85</t>
+          <t>2,74; 6,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,22; 7,29</t>
+          <t>2,14; 6,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,41; 5,92</t>
+          <t>2,48; 5,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,34; 8,9</t>
+          <t>4,24; 8,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 5,43</t>
+          <t>2,18; 5,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,93; 6,46</t>
+          <t>1,83; 5,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 4,85</t>
+          <t>2,53; 4,9</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,66; 6,01</t>
+          <t>3,65; 6,12</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 5,22</t>
+          <t>2,85; 5,34</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,73</t>
+          <t>2,4; 5,79</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,76; 9,44</t>
+          <t>4,75; 9,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,62; 10,24</t>
+          <t>5,68; 10,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,8; 6,64</t>
+          <t>2,66; 6,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,82</t>
+          <t>2,51; 5,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,32; 10,8</t>
+          <t>6,18; 10,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,58; 9,84</t>
+          <t>5,32; 9,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 8,92</t>
+          <t>4,94; 9,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,29; 6,32</t>
+          <t>3,3; 6,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,22; 9,61</t>
+          <t>6,15; 9,32</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,14; 9,46</t>
+          <t>6,16; 9,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 6,77</t>
+          <t>4,2; 6,84</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,6</t>
+          <t>3,23; 5,53</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,76; 16,9</t>
+          <t>9,82; 16,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,74; 17,66</t>
+          <t>11,14; 17,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,39; 13,05</t>
+          <t>7,19; 12,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 8,52</t>
+          <t>2,29; 8,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,74; 15,88</t>
+          <t>9,82; 16,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,53; 18,63</t>
+          <t>12,37; 18,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,22; 12,5</t>
+          <t>7,22; 12,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 8,11</t>
+          <t>5,17; 8,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,64; 15,54</t>
+          <t>10,47; 15,15</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,8; 17,44</t>
+          <t>12,65; 17,3</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,95; 11,59</t>
+          <t>7,91; 11,54</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 7,74</t>
+          <t>3,61; 7,78</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,13; 31,54</t>
+          <t>21,14; 31,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,68; 31,3</t>
+          <t>21,94; 31,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,46; 21,56</t>
+          <t>13,34; 21,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,35; 14,23</t>
+          <t>9,2; 14,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,55; 28,79</t>
+          <t>19,91; 29,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,2; 28,83</t>
+          <t>19,91; 28,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,72; 21,94</t>
+          <t>13,2; 21,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,88; 11,47</t>
+          <t>7,92; 11,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,44; 28,79</t>
+          <t>21,85; 28,49</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21,97; 28,7</t>
+          <t>21,86; 28,75</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,76; 20,43</t>
+          <t>14,69; 20,68</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,13; 12,27</t>
+          <t>8,94; 12,06</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>32,63; 45,1</t>
+          <t>32,6; 45,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>33,77; 47,2</t>
+          <t>34,54; 47,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,37; 31,81</t>
+          <t>19,42; 31,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,72; 22,14</t>
+          <t>15,22; 21,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>36,33; 48,29</t>
+          <t>35,75; 47,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>36,23; 48,13</t>
+          <t>37,3; 48,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,32; 32,69</t>
+          <t>22,48; 33,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,92; 23,98</t>
+          <t>6,02; 23,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>35,69; 44,57</t>
+          <t>36,21; 44,68</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>37,46; 45,82</t>
+          <t>36,93; 45,69</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>22,51; 30,86</t>
+          <t>22,58; 31,03</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,47; 21,34</t>
+          <t>8,33; 21,64</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>40,82; 58,79</t>
+          <t>41,88; 58,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>37,57; 52,29</t>
+          <t>37,4; 52,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28,78; 43,59</t>
+          <t>29,1; 42,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>31,57; 40,35</t>
+          <t>31,5; 40,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>53,24; 67,5</t>
+          <t>54,08; 67,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>49,28; 61,17</t>
+          <t>49,41; 61,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>24,45; 38,63</t>
+          <t>24,65; 38,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>36,43; 43,29</t>
+          <t>36,52; 43,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>51,04; 61,8</t>
+          <t>50,68; 61,77</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>46,81; 56,29</t>
+          <t>46,61; 55,75</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>27,68; 38,34</t>
+          <t>27,42; 37,93</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>35,43; 40,91</t>
+          <t>35,46; 41,05</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,22; 15,05</t>
+          <t>12,29; 14,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13,75; 16,54</t>
+          <t>13,63; 16,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,57; 11,91</t>
+          <t>9,43; 11,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,55; 10,84</t>
+          <t>7,3; 10,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>14,73; 17,43</t>
+          <t>14,76; 17,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>16,74; 19,53</t>
+          <t>16,78; 19,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,39; 12,99</t>
+          <t>10,45; 12,95</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,98; 12,29</t>
+          <t>8,75; 12,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13,91; 15,89</t>
+          <t>14,04; 16,0</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>15,67; 17,67</t>
+          <t>15,69; 17,75</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>10,38; 12,15</t>
+          <t>10,33; 12,11</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>9,06; 11,29</t>
+          <t>8,96; 11,33</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11488</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11181</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>13498</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5325</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8046</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14937</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10385</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3854</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>19534</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>26118</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>23883</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>9178</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5848; 19113</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6461; 18538</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7587; 22645</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>310; 18929</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4194; 15545</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8710; 23966</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5587; 18127</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>238; 15771</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>11984; 28967</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>17185; 36964</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>15356; 34974</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2556; 25817</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19147</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>21344</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>21474</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>17137</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>20864</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>34345</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>17310</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>18169</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>40012</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>55689</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>38785</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>35305</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>12170; 30208</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>13830; 31020</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13529; 32382</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>8609; 27837</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>13572; 31371</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>23717; 46154</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>10836; 26363</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9167; 29847</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>28471; 55013</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>42196; 70742</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>28257; 52853</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>21664; 52183</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>33732</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>45513</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>23216</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>20592</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>50584</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>47973</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>37998</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>24459</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>84316</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>93486</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>61214</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>45052</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>23898; 45267</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>33335; 61390</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>14864; 34844</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>13175; 31285</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>37277; 65916</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>35084; 64112</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>28303; 52835</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17528; 32291</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>68095; 103129</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>76743; 116930</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>47522; 77347</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>34159; 58349</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>52881</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>76483</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>50749</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>49094</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>55515</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>87086</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>51505</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>46290</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>108396</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>163569</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>102254</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>95384</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>39745; 67668</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>60450; 96874</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>36857; 65346</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>19781; 76651</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>43137; 70978</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>69702; 106071</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>39315; 67337</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>36239; 57841</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>88320; 127835</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>139902; 191320</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>83618; 122052</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>56490; 121587</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>71160</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>94671</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>64254</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>62990</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>77272</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>94281</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>68937</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>50949</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>148432</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>188952</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>133191</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>113939</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>57570; 86017</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>79272; 112186</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>49495; 79547</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>50302; 76840</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>63522; 95052</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>77803; 112051</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>52246; 83125</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>42346; 62564</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>129241; 168525</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>164418; 216226</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>112673; 158587</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>96703; 130329</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>82724</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>105454</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>58326</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>66793</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>103069</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>127569</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>76410</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>91482</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>185793</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>233023</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>134736</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>158275</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>69371; 97444</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>90652; 123774</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>44699; 72278</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>54702; 79010</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>88272; 118171</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>112107; 146602</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>62265; 92667</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>36096; 143766</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>166469; 205374</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>207947; 257259</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>114479; 157327</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>79914; 207606</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>62519</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>82501</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>52208</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>98685</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>126870</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>71044</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>162727</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>189389</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>250008</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>123252</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>261412</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>53087; 74279</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>69157; 97985</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>42789; 63207</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>86780; 111247</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>112609; 140123</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>149432; 185092</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>56178; 88242</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>149238; 177906</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>169780; 206912</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>227142; 271669</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>102792; 142209</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>242600; 280881</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>921</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1206</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>333652</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>437147</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>283725</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>320615</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>442221</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>573698</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>333590</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>397930</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>775873</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1010844</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>617315</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>718545</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>301710; 365333</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>397309; 481554</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>251292; 316354</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>244798; 361711</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>404636; 484194</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>528109; 617858</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>299632; 371248</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>312993; 437865</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>729461; 831117</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>950909; 1076018</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>571410; 669867</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>620979; 785501</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>